--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value105.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value105.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.203446889586147</v>
+        <v>2.784564733505249</v>
       </c>
       <c r="B1">
-        <v>2.429781461220263</v>
+        <v>2.263836622238159</v>
       </c>
       <c r="C1">
-        <v>5.301689680968768</v>
+        <v>2.256114482879639</v>
       </c>
       <c r="D1">
-        <v>1.557360389041947</v>
+        <v>1.998031735420227</v>
       </c>
       <c r="E1">
-        <v>0.7588417995789809</v>
+        <v>1.357514381408691</v>
       </c>
     </row>
   </sheetData>
